--- a/output/1Y_P44_KFSDIV.xlsx
+++ b/output/1Y_P44_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>15.3637</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.6447</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="F3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="H3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0468</v>
+        <v>-0.0506</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>15.486</v>
       </c>
       <c r="C4" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D4" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.7258</v>
+        <v>1331.0601</v>
       </c>
       <c r="F4" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9956</v>
+        <v>15.0256</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>16.1958</v>
       </c>
       <c r="C5" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D5" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E5" s="1">
-        <v>1979.4703</v>
+        <v>1975.5146</v>
       </c>
       <c r="F5" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>32058.9073</v>
+        <v>31931.032</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32058.9073</v>
+        <v>31931.032</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1556</v>
+        <v>15.1859</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0458</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>16.4264</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E6" s="1">
-        <v>2596.9143</v>
+        <v>2591.7258</v>
       </c>
       <c r="F6" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="H6" s="1">
-        <v>42657.9537</v>
+        <v>42487.7168</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>42657.9537</v>
+        <v>42487.7168</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.4029</v>
+        <v>15.4337</v>
       </c>
       <c r="M6" s="1">
         <v>0.75</v>
       </c>
       <c r="N6" s="1">
-        <v>1336.1425</v>
+        <v>1333.4723</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8663.8575</v>
+        <v>-8666.527700000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>17.107</v>
       </c>
       <c r="C7" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D7" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E7" s="1">
-        <v>3205.6905</v>
+        <v>3199.2851</v>
       </c>
       <c r="F7" s="1">
-        <v>595.7139</v>
+        <v>594.4996</v>
       </c>
       <c r="H7" s="1">
-        <v>54839.7467</v>
+        <v>54620.7546</v>
       </c>
       <c r="I7" s="1">
-        <v>1336.1425</v>
+        <v>1333.4723</v>
       </c>
       <c r="J7" s="1">
-        <v>56175.8891</v>
+        <v>55954.2269</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.5973</v>
+        <v>15.6285</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10190.8775</v>
+        <v>-10190.496</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0668</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>16.8894</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D8" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E8" s="1">
-        <v>3801.4043</v>
+        <v>3793.7847</v>
       </c>
       <c r="F8" s="1">
-        <v>603.389</v>
+        <v>602.1613</v>
       </c>
       <c r="H8" s="1">
-        <v>64203.0584</v>
+        <v>63946.5173</v>
       </c>
       <c r="I8" s="1">
-        <v>1145.265</v>
+        <v>1142.9763</v>
       </c>
       <c r="J8" s="1">
-        <v>65348.3234</v>
+        <v>65089.4936</v>
       </c>
       <c r="K8" s="1">
-        <v>60190.8775</v>
+        <v>60190.496</v>
       </c>
       <c r="L8" s="1">
-        <v>15.8339</v>
+        <v>15.8656</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2885.1214</v>
+        <v>2879.3566</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7305.7561</v>
+        <v>-7311.1395</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0125</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>16.4004</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E9" s="1">
-        <v>4404.7933</v>
+        <v>4395.946</v>
       </c>
       <c r="F9" s="1">
-        <v>656.5634</v>
+        <v>655.1555</v>
       </c>
       <c r="H9" s="1">
-        <v>72240.37209999999</v>
+        <v>71951.08560000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3839.5089</v>
+        <v>3831.8368</v>
       </c>
       <c r="J9" s="1">
-        <v>76079.88099999999</v>
+        <v>75782.9225</v>
       </c>
       <c r="K9" s="1">
-        <v>70381.755</v>
+        <v>70380.9921</v>
       </c>
       <c r="L9" s="1">
-        <v>15.9784</v>
+        <v>16.0104</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10767.9018</v>
+        <v>-10766.3674</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>15.3877</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E10" s="1">
-        <v>5061.3567</v>
+        <v>5051.1015</v>
       </c>
       <c r="F10" s="1">
-        <v>699.7732999999999</v>
+        <v>698.2759</v>
       </c>
       <c r="H10" s="1">
-        <v>77882.63800000001</v>
+        <v>77569.261</v>
       </c>
       <c r="I10" s="1">
-        <v>3071.6071</v>
+        <v>3065.4695</v>
       </c>
       <c r="J10" s="1">
-        <v>80954.2451</v>
+        <v>80634.7304</v>
       </c>
       <c r="K10" s="1">
-        <v>81149.6568</v>
+        <v>81147.35950000001</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0332</v>
+        <v>16.0653</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10767.9018</v>
+        <v>-10766.3674</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0595</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.6367</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E11" s="1">
-        <v>5761.13</v>
+        <v>5749.3774</v>
       </c>
       <c r="F11" s="1">
-        <v>735.6781999999999</v>
+        <v>734.1039</v>
       </c>
       <c r="H11" s="1">
-        <v>84323.93120000001</v>
+        <v>83983.4561</v>
       </c>
       <c r="I11" s="1">
-        <v>2303.7053</v>
+        <v>2299.1021</v>
       </c>
       <c r="J11" s="1">
-        <v>86627.63649999999</v>
+        <v>86282.5582</v>
       </c>
       <c r="K11" s="1">
-        <v>91917.5585</v>
+        <v>91913.7268</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9548</v>
+        <v>15.9867</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10767.9018</v>
+        <v>-10766.3674</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0476</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.0061</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E12" s="1">
-        <v>6496.8082</v>
+        <v>6483.4813</v>
       </c>
       <c r="F12" s="1">
-        <v>827.9117</v>
+        <v>826.1358</v>
       </c>
       <c r="H12" s="1">
-        <v>84498.1375</v>
+        <v>84156.2359</v>
       </c>
       <c r="I12" s="1">
-        <v>1535.8036</v>
+        <v>1532.7347</v>
       </c>
       <c r="J12" s="1">
-        <v>86033.94100000001</v>
+        <v>85688.9706</v>
       </c>
       <c r="K12" s="1">
-        <v>102685.4603</v>
+        <v>102680.0942</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8055</v>
+        <v>15.8372</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2592.5085</v>
+        <v>2587.2199</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8175.3933</v>
+        <v>-8179.1475</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1096</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.835</v>
       </c>
       <c r="C13" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D13" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E13" s="1">
-        <v>7324.7199</v>
+        <v>7309.6171</v>
       </c>
       <c r="F13" s="1">
-        <v>965.6964</v>
+        <v>963.2746</v>
       </c>
       <c r="H13" s="1">
-        <v>101337.4995</v>
+        <v>100926.0769</v>
       </c>
       <c r="I13" s="1">
-        <v>3360.4103</v>
+        <v>3353.5872</v>
       </c>
       <c r="J13" s="1">
-        <v>104697.9098</v>
+        <v>104279.6641</v>
       </c>
       <c r="K13" s="1">
-        <v>113453.3621</v>
+        <v>113446.4615</v>
       </c>
       <c r="L13" s="1">
-        <v>15.4891</v>
+        <v>15.5202</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13360.4103</v>
+        <v>-13353.5872</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0902</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.4216</v>
       </c>
       <c r="C14" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D14" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E14" s="1">
-        <v>8290.416300000001</v>
+        <v>8272.891799999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8290.416300000001</v>
+        <v>-8272.891799999999</v>
       </c>
       <c r="H14" s="1">
-        <v>119561.068</v>
+        <v>119070.0768</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119561.068</v>
+        <v>119070.0768</v>
       </c>
       <c r="K14" s="1">
-        <v>126813.7724</v>
+        <v>126800.0488</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2964</v>
+        <v>15.3272</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119561.068</v>
+        <v>119070.0768</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>15.3637</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.6447</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="F3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0468</v>
+        <v>-0.0506</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>15.486</v>
       </c>
       <c r="C4" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D4" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.7258</v>
+        <v>1331.0601</v>
       </c>
       <c r="F4" s="1">
-        <v>603.5078999999999</v>
+        <v>610.0593</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9956</v>
+        <v>15.0256</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9345.922699999999</v>
+        <v>-9466.290000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>16.1958</v>
       </c>
       <c r="C5" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D5" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E5" s="1">
-        <v>1937.2336</v>
+        <v>1941.1194</v>
       </c>
       <c r="F5" s="1">
-        <v>532.5577</v>
+        <v>533.6075</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31374.8547</v>
+        <v>31375.089</v>
       </c>
       <c r="I5" s="1">
-        <v>654.0773</v>
+        <v>533.71</v>
       </c>
       <c r="J5" s="1">
-        <v>32028.932</v>
+        <v>31908.7989</v>
       </c>
       <c r="K5" s="1">
-        <v>29345.9227</v>
+        <v>29466.29</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1484</v>
+        <v>15.1801</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8625.1985</v>
+        <v>-8659.488799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0449</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>16.4264</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E6" s="1">
-        <v>2469.7914</v>
+        <v>2474.7269</v>
       </c>
       <c r="F6" s="1">
-        <v>574.0892</v>
+        <v>575.2439000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40569.7809</v>
+        <v>40569.6821</v>
       </c>
       <c r="I6" s="1">
-        <v>2028.8787</v>
+        <v>1874.2212</v>
       </c>
       <c r="J6" s="1">
-        <v>42598.6596</v>
+        <v>42443.9033</v>
       </c>
       <c r="K6" s="1">
-        <v>37971.1213</v>
+        <v>38125.7788</v>
       </c>
       <c r="L6" s="1">
-        <v>15.3742</v>
+        <v>15.4061</v>
       </c>
       <c r="M6" s="1">
         <v>0.75</v>
       </c>
       <c r="N6" s="1">
-        <v>1307.6327</v>
+        <v>1310.2556</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8122.5864</v>
+        <v>-8157.8558</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0136</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>17.107</v>
       </c>
       <c r="C7" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D7" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E7" s="1">
-        <v>3043.8806</v>
+        <v>3049.9707</v>
       </c>
       <c r="F7" s="1">
-        <v>463.4556</v>
+        <v>464.3913</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52071.6651</v>
+        <v>52071.5401</v>
       </c>
       <c r="I7" s="1">
-        <v>3906.2923</v>
+        <v>3716.3653</v>
       </c>
       <c r="J7" s="1">
-        <v>55977.9574</v>
+        <v>55787.9055</v>
       </c>
       <c r="K7" s="1">
-        <v>47401.3404</v>
+        <v>47593.8902</v>
       </c>
       <c r="L7" s="1">
-        <v>15.5727</v>
+        <v>15.6047</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7928.3349</v>
+        <v>-7960.2707</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>16.8894</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D8" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E8" s="1">
-        <v>3507.3362</v>
+        <v>3514.362</v>
       </c>
       <c r="F8" s="1">
-        <v>637.2998</v>
+        <v>638.5604</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59236.4529</v>
+        <v>59236.6806</v>
       </c>
       <c r="I8" s="1">
-        <v>5977.9574</v>
+        <v>5756.0946</v>
       </c>
       <c r="J8" s="1">
-        <v>65214.4103</v>
+        <v>64992.7752</v>
       </c>
       <c r="K8" s="1">
-        <v>55329.6753</v>
+        <v>55554.1609</v>
       </c>
       <c r="L8" s="1">
-        <v>15.7754</v>
+        <v>15.8078</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2739.4925</v>
+        <v>2744.9736</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8024.1183</v>
+        <v>-8061.5125</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0116</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>16.4004</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E9" s="1">
-        <v>4144.636</v>
+        <v>4152.9225</v>
       </c>
       <c r="F9" s="1">
-        <v>733.2939</v>
+        <v>734.7825</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67973.6875</v>
+        <v>67973.3738</v>
       </c>
       <c r="I9" s="1">
-        <v>7953.8391</v>
+        <v>7694.5822</v>
       </c>
       <c r="J9" s="1">
-        <v>75927.5266</v>
+        <v>75667.95600000001</v>
       </c>
       <c r="K9" s="1">
-        <v>66093.2861</v>
+        <v>66360.647</v>
       </c>
       <c r="L9" s="1">
-        <v>15.9467</v>
+        <v>15.9793</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12026.3125</v>
+        <v>-12074.9014</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>15.3877</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E10" s="1">
-        <v>4877.9298</v>
+        <v>4887.705</v>
       </c>
       <c r="F10" s="1">
-        <v>970.8975</v>
+        <v>972.8528</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75060.1205</v>
+        <v>75059.9966</v>
       </c>
       <c r="I10" s="1">
-        <v>5927.5266</v>
+        <v>5619.6808</v>
       </c>
       <c r="J10" s="1">
-        <v>80987.6471</v>
+        <v>80679.6774</v>
       </c>
       <c r="K10" s="1">
-        <v>78119.5986</v>
+        <v>78435.5484</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0149</v>
+        <v>16.0475</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-14939.8795</v>
+        <v>-14999.9312</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0575</v>
+        <v>-0.0582</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.6367</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E11" s="1">
-        <v>5848.8273</v>
+        <v>5860.5578</v>
       </c>
       <c r="F11" s="1">
-        <v>750.6916</v>
+        <v>724.1068</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85607.5307</v>
+        <v>85607.5119</v>
       </c>
       <c r="I11" s="1">
-        <v>987.6471</v>
+        <v>619.7496</v>
       </c>
       <c r="J11" s="1">
-        <v>86595.1778</v>
+        <v>86227.2616</v>
       </c>
       <c r="K11" s="1">
-        <v>93059.47809999999</v>
+        <v>93435.47960000001</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9108</v>
+        <v>15.9431</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10987.6471</v>
+        <v>-10619.7496</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0483</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.0061</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E12" s="1">
-        <v>6599.5189</v>
+        <v>6584.6645</v>
       </c>
       <c r="F12" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>85834.00229999999</v>
+        <v>85469.60430000001</v>
       </c>
       <c r="I12" s="1">
         <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>85834.00229999999</v>
+        <v>85469.60430000001</v>
       </c>
       <c r="K12" s="1">
-        <v>104047.1252</v>
+        <v>104055.2292</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7659</v>
+        <v>15.8027</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2631.9723</v>
+        <v>2637.251</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7368.0277</v>
+        <v>-7362.749</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.835</v>
       </c>
       <c r="C13" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D13" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E13" s="1">
-        <v>7368.3889</v>
+        <v>7351.9947</v>
       </c>
       <c r="F13" s="1">
-        <v>913.0445999999999</v>
+        <v>911.601</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>101941.6598</v>
+        <v>101511.1964</v>
       </c>
       <c r="I13" s="1">
-        <v>2631.9723</v>
+        <v>2637.251</v>
       </c>
       <c r="J13" s="1">
-        <v>104573.6321</v>
+        <v>104148.4474</v>
       </c>
       <c r="K13" s="1">
-        <v>114047.1252</v>
+        <v>114055.2292</v>
       </c>
       <c r="L13" s="1">
-        <v>15.4779</v>
+        <v>15.5135</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12631.9723</v>
+        <v>-12637.251</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0912</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.4216</v>
       </c>
       <c r="C14" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D14" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E14" s="1">
-        <v>8281.433499999999</v>
+        <v>8263.5957</v>
       </c>
       <c r="F14" s="1">
-        <v>-8281.433499999999</v>
+        <v>-8263.5957</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119431.521</v>
+        <v>118936.28</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119431.521</v>
+        <v>118936.28</v>
       </c>
       <c r="K14" s="1">
-        <v>126679.0975</v>
+        <v>126692.4802</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2968</v>
+        <v>15.3314</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119431.521</v>
+        <v>118936.28</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>15.3637</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.6447</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="F3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0468</v>
+        <v>-0.0506</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>15.486</v>
       </c>
       <c r="C4" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D4" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.7258</v>
+        <v>1331.0601</v>
       </c>
       <c r="F4" s="1">
-        <v>613.2102</v>
+        <v>619.7811</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9956</v>
+        <v>15.0256</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9496.172699999999</v>
+        <v>-9617.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>16.1958</v>
       </c>
       <c r="C5" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D5" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E5" s="1">
-        <v>1946.9359</v>
+        <v>1950.8412</v>
       </c>
       <c r="F5" s="1">
-        <v>541.4407</v>
+        <v>542.5081</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31531.9904</v>
+        <v>31532.2259</v>
       </c>
       <c r="I5" s="1">
-        <v>503.8273</v>
+        <v>382.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>32035.8177</v>
+        <v>31915.0831</v>
       </c>
       <c r="K5" s="1">
-        <v>29496.1727</v>
+        <v>29617.1428</v>
       </c>
       <c r="L5" s="1">
-        <v>15.15</v>
+        <v>15.1817</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8769.065000000001</v>
+        <v>-8803.929899999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0451</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>16.4264</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E6" s="1">
-        <v>2488.3766</v>
+        <v>2493.3492</v>
       </c>
       <c r="F6" s="1">
-        <v>586.0953</v>
+        <v>587.2741</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40875.0697</v>
+        <v>40874.9702</v>
       </c>
       <c r="I6" s="1">
-        <v>1734.7623</v>
+        <v>1578.9273</v>
       </c>
       <c r="J6" s="1">
-        <v>42609.832</v>
+        <v>42453.8976</v>
       </c>
       <c r="K6" s="1">
-        <v>38265.2377</v>
+        <v>38421.0727</v>
       </c>
       <c r="L6" s="1">
-        <v>15.3776</v>
+        <v>15.4094</v>
       </c>
       <c r="M6" s="1">
         <v>0.75</v>
       </c>
       <c r="N6" s="1">
-        <v>1314.1818</v>
+        <v>1316.8178</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8313.254800000001</v>
+        <v>-8349.302100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0137</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>17.107</v>
       </c>
       <c r="C7" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D7" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E7" s="1">
-        <v>3074.472</v>
+        <v>3080.6233</v>
       </c>
       <c r="F7" s="1">
-        <v>476.9993</v>
+        <v>477.9622</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52594.9919</v>
+        <v>52594.8656</v>
       </c>
       <c r="I7" s="1">
-        <v>3421.5075</v>
+        <v>3229.6252</v>
       </c>
       <c r="J7" s="1">
-        <v>56016.4994</v>
+        <v>55824.4908</v>
       </c>
       <c r="K7" s="1">
-        <v>47892.6742</v>
+        <v>48087.1926</v>
       </c>
       <c r="L7" s="1">
-        <v>15.5775</v>
+        <v>15.6096</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8160.0269</v>
+        <v>-8192.893599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0648</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>16.8894</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D8" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E8" s="1">
-        <v>3551.4713</v>
+        <v>3558.5855</v>
       </c>
       <c r="F8" s="1">
-        <v>655.8549</v>
+        <v>657.1525</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59981.8635</v>
+        <v>59982.094</v>
       </c>
       <c r="I8" s="1">
-        <v>5261.4806</v>
+        <v>5036.7316</v>
       </c>
       <c r="J8" s="1">
-        <v>65243.3441</v>
+        <v>65018.8256</v>
       </c>
       <c r="K8" s="1">
-        <v>56052.7011</v>
+        <v>56280.0862</v>
       </c>
       <c r="L8" s="1">
-        <v>15.783</v>
+        <v>15.8153</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2767.0248</v>
+        <v>2772.561</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8309.9712</v>
+        <v>-8348.562400000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>16.4004</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E9" s="1">
-        <v>4207.3262</v>
+        <v>4215.738</v>
       </c>
       <c r="F9" s="1">
-        <v>756.8264</v>
+        <v>758.3625</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69001.8321</v>
+        <v>69001.5137</v>
       </c>
       <c r="I9" s="1">
-        <v>6951.5094</v>
+        <v>6688.1692</v>
       </c>
       <c r="J9" s="1">
-        <v>75953.34149999999</v>
+        <v>75689.6829</v>
       </c>
       <c r="K9" s="1">
-        <v>67129.6971</v>
+        <v>67401.2096</v>
       </c>
       <c r="L9" s="1">
-        <v>15.9554</v>
+        <v>15.988</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12412.2557</v>
+        <v>-12462.3985</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>15.3877</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E10" s="1">
-        <v>4964.1526</v>
+        <v>4974.1005</v>
       </c>
       <c r="F10" s="1">
-        <v>944.862</v>
+        <v>922.643</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76386.89049999999</v>
+        <v>76386.7644</v>
       </c>
       <c r="I10" s="1">
-        <v>4539.2537</v>
+        <v>4225.7706</v>
       </c>
       <c r="J10" s="1">
-        <v>80926.1442</v>
+        <v>80612.53509999999</v>
       </c>
       <c r="K10" s="1">
-        <v>79541.9528</v>
+        <v>79863.6081</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0233</v>
+        <v>16.0559</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-14539.2537</v>
+        <v>-14225.7706</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0585</v>
+        <v>-0.0593</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.6367</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E11" s="1">
-        <v>5909.0146</v>
+        <v>5896.7435</v>
       </c>
       <c r="F11" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86488.4743</v>
+        <v>86136.091</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86488.4743</v>
+        <v>86136.091</v>
       </c>
       <c r="K11" s="1">
-        <v>94081.2065</v>
+        <v>94089.37880000001</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9216</v>
+        <v>15.9562</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.0061</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E12" s="1">
-        <v>6592.2287</v>
+        <v>6578.5927</v>
       </c>
       <c r="F12" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>85739.18610000001</v>
+        <v>85390.7908</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>85739.18610000001</v>
+        <v>85390.7908</v>
       </c>
       <c r="K12" s="1">
-        <v>104081.2065</v>
+        <v>104089.3788</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7885</v>
+        <v>15.8224</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2659.0566</v>
+        <v>2653.5346</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7340.9434</v>
+        <v>-7346.4654</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.835</v>
       </c>
       <c r="C13" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D13" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E13" s="1">
-        <v>7361.0987</v>
+        <v>7345.9228</v>
       </c>
       <c r="F13" s="1">
-        <v>915.0023</v>
+        <v>912.7756000000001</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>101840.8008</v>
+        <v>101427.3603</v>
       </c>
       <c r="I13" s="1">
-        <v>2659.0566</v>
+        <v>2653.5346</v>
       </c>
       <c r="J13" s="1">
-        <v>104499.8574</v>
+        <v>104080.8948</v>
       </c>
       <c r="K13" s="1">
-        <v>114081.2065</v>
+        <v>114089.3788</v>
       </c>
       <c r="L13" s="1">
-        <v>15.4979</v>
+        <v>15.531</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12659.0566</v>
+        <v>-12653.5346</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0915</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.4216</v>
       </c>
       <c r="C14" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D14" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E14" s="1">
-        <v>8276.101000000001</v>
+        <v>8258.698399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8276.101000000001</v>
+        <v>-8258.698399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119354.6182</v>
+        <v>118865.795</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119354.6182</v>
+        <v>118865.795</v>
       </c>
       <c r="K14" s="1">
-        <v>126740.2631</v>
+        <v>126742.9133</v>
       </c>
       <c r="L14" s="1">
-        <v>15.314</v>
+        <v>15.3466</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119354.6182</v>
+        <v>118865.795</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>15.3637</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.6447</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="F3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0468</v>
+        <v>-0.0506</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>15.486</v>
       </c>
       <c r="C4" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D4" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.7258</v>
+        <v>1331.0601</v>
       </c>
       <c r="F4" s="1">
-        <v>622.9448</v>
+        <v>629.5352</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9956</v>
+        <v>15.0256</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9646.922699999999</v>
+        <v>-9768.497499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>16.1958</v>
       </c>
       <c r="C5" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D5" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E5" s="1">
-        <v>1956.6705</v>
+        <v>1960.5953</v>
       </c>
       <c r="F5" s="1">
-        <v>550.4153</v>
+        <v>551.5006</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31689.6491</v>
+        <v>31689.8857</v>
       </c>
       <c r="I5" s="1">
-        <v>353.0773</v>
+        <v>231.5025</v>
       </c>
       <c r="J5" s="1">
-        <v>32042.7263</v>
+        <v>31921.3881</v>
       </c>
       <c r="K5" s="1">
-        <v>29646.9227</v>
+        <v>29768.4975</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1517</v>
+        <v>15.1834</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8914.415999999999</v>
+        <v>-8949.861500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0453</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>16.4264</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E6" s="1">
-        <v>2507.0858</v>
+        <v>2512.0958</v>
       </c>
       <c r="F6" s="1">
-        <v>598.2842000000001</v>
+        <v>599.4873</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41182.3947</v>
+        <v>41182.2945</v>
       </c>
       <c r="I6" s="1">
-        <v>1438.6613</v>
+        <v>1281.6409</v>
       </c>
       <c r="J6" s="1">
-        <v>42621.056</v>
+        <v>42463.9354</v>
       </c>
       <c r="K6" s="1">
-        <v>38561.3387</v>
+        <v>38718.3591</v>
       </c>
       <c r="L6" s="1">
-        <v>15.3809</v>
+        <v>15.4128</v>
       </c>
       <c r="M6" s="1">
         <v>0.75</v>
       </c>
       <c r="N6" s="1">
-        <v>1320.7526</v>
+        <v>1323.4018</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8506.9028</v>
+        <v>-8543.740100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0138</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>17.107</v>
       </c>
       <c r="C7" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D7" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E7" s="1">
-        <v>3105.37</v>
+        <v>3111.5832</v>
       </c>
       <c r="F7" s="1">
-        <v>490.8275</v>
+        <v>491.8182</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53123.5649</v>
+        <v>53123.4374</v>
       </c>
       <c r="I7" s="1">
-        <v>2931.7585</v>
+        <v>2737.9008</v>
       </c>
       <c r="J7" s="1">
-        <v>56055.3235</v>
+        <v>55861.3382</v>
       </c>
       <c r="K7" s="1">
-        <v>48388.9941</v>
+        <v>48585.501</v>
       </c>
       <c r="L7" s="1">
-        <v>15.5824</v>
+        <v>15.6144</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8396.5857</v>
+        <v>-8430.402700000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0653</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>16.8894</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D8" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E8" s="1">
-        <v>3596.1975</v>
+        <v>3603.4014</v>
       </c>
       <c r="F8" s="1">
-        <v>674.8707000000001</v>
+        <v>676.2061</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60737.2584</v>
+        <v>60737.4918</v>
       </c>
       <c r="I8" s="1">
-        <v>4535.1729</v>
+        <v>4307.498</v>
       </c>
       <c r="J8" s="1">
-        <v>65272.4313</v>
+        <v>65044.9898</v>
       </c>
       <c r="K8" s="1">
-        <v>56785.5798</v>
+        <v>57015.9038</v>
       </c>
       <c r="L8" s="1">
-        <v>15.7905</v>
+        <v>15.8228</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2794.833</v>
+        <v>2800.4249</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8603.3282</v>
+        <v>-8643.1469</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>16.4004</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E9" s="1">
-        <v>4271.0682</v>
+        <v>4279.6075</v>
       </c>
       <c r="F9" s="1">
-        <v>781.0467</v>
+        <v>782.6317</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70047.22689999999</v>
+        <v>70046.90360000001</v>
       </c>
       <c r="I9" s="1">
-        <v>5931.8447</v>
+        <v>5664.3511</v>
       </c>
       <c r="J9" s="1">
-        <v>75979.0716</v>
+        <v>75711.2547</v>
       </c>
       <c r="K9" s="1">
-        <v>68183.7409</v>
+        <v>68459.47560000001</v>
       </c>
       <c r="L9" s="1">
-        <v>15.9641</v>
+        <v>15.9967</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12809.4788</v>
+        <v>-12861.2209</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>15.3877</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E10" s="1">
-        <v>5052.1149</v>
+        <v>5062.2392</v>
       </c>
       <c r="F10" s="1">
-        <v>852.7828</v>
+        <v>830.3746</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77740.42879999999</v>
+        <v>77740.3005</v>
       </c>
       <c r="I10" s="1">
-        <v>3122.3659</v>
+        <v>2803.1302</v>
       </c>
       <c r="J10" s="1">
-        <v>80862.7948</v>
+        <v>80543.4307</v>
       </c>
       <c r="K10" s="1">
-        <v>80993.2197</v>
+        <v>81320.69650000001</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0315</v>
+        <v>16.0642</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-13122.3659</v>
+        <v>-12803.1302</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0595</v>
+        <v>-0.0603</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.6367</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E11" s="1">
-        <v>5904.8977</v>
+        <v>5892.6137</v>
       </c>
       <c r="F11" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>86428.2166</v>
+        <v>86075.7656</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86428.2166</v>
+        <v>86075.7656</v>
       </c>
       <c r="K11" s="1">
-        <v>94115.58560000001</v>
+        <v>94123.82670000001</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9386</v>
+        <v>15.9732</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.0061</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E12" s="1">
-        <v>6588.1118</v>
+        <v>6574.4629</v>
       </c>
       <c r="F12" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>85685.64139999999</v>
+        <v>85337.18580000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>85685.64139999999</v>
+        <v>85337.18580000001</v>
       </c>
       <c r="K12" s="1">
-        <v>104115.5856</v>
+        <v>104123.8267</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8036</v>
+        <v>15.8376</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2657.204</v>
+        <v>2651.6762</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7342.796</v>
+        <v>-7348.3238</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.835</v>
       </c>
       <c r="C13" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D13" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E13" s="1">
-        <v>7356.9818</v>
+        <v>7341.793</v>
       </c>
       <c r="F13" s="1">
-        <v>914.8684</v>
+        <v>912.6416</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>101783.8436</v>
+        <v>101370.3391</v>
       </c>
       <c r="I13" s="1">
-        <v>2657.204</v>
+        <v>2651.6762</v>
       </c>
       <c r="J13" s="1">
-        <v>104441.0476</v>
+        <v>104022.0153</v>
       </c>
       <c r="K13" s="1">
-        <v>114115.5856</v>
+        <v>114123.8267</v>
       </c>
       <c r="L13" s="1">
-        <v>15.5112</v>
+        <v>15.5444</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12657.204</v>
+        <v>-12651.6762</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0915</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.4216</v>
       </c>
       <c r="C14" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D14" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E14" s="1">
-        <v>8271.850200000001</v>
+        <v>8254.434600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8271.850200000001</v>
+        <v>-8254.434600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119293.315</v>
+        <v>118804.4264</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119293.315</v>
+        <v>118804.4264</v>
       </c>
       <c r="K14" s="1">
-        <v>126772.7896</v>
+        <v>126775.5029</v>
       </c>
       <c r="L14" s="1">
-        <v>15.3258</v>
+        <v>15.3585</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119293.315</v>
+        <v>118804.4264</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>15.3637</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.6447</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="F3" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9532.013800000001</v>
+        <v>9493.9102</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0468</v>
+        <v>-0.0506</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>15.486</v>
       </c>
       <c r="C4" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D4" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.7258</v>
+        <v>1331.0601</v>
       </c>
       <c r="F4" s="1">
-        <v>632.7117</v>
+        <v>639.3217</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20654.0773</v>
+        <v>20571.5336</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9956</v>
+        <v>15.0256</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9798.172699999999</v>
+        <v>-9920.354300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>16.1958</v>
       </c>
       <c r="C5" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D5" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E5" s="1">
-        <v>1966.4374</v>
+        <v>1970.3818</v>
       </c>
       <c r="F5" s="1">
-        <v>559.482</v>
+        <v>560.5854</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31847.8306</v>
+        <v>31848.0684</v>
       </c>
       <c r="I5" s="1">
-        <v>201.8273</v>
+        <v>79.64570000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>32049.6579</v>
+        <v>31927.7141</v>
       </c>
       <c r="K5" s="1">
-        <v>29798.1727</v>
+        <v>29920.3543</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1534</v>
+        <v>15.1851</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9061.259099999999</v>
+        <v>-9097.2912</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0455</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>16.4264</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E6" s="1">
-        <v>2525.9195</v>
+        <v>2530.9671</v>
       </c>
       <c r="F6" s="1">
-        <v>610.6576</v>
+        <v>611.8855</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41491.7634</v>
+        <v>41491.6624</v>
       </c>
       <c r="I6" s="1">
-        <v>1140.5682</v>
+        <v>982.3544000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>42632.3316</v>
+        <v>42474.0168</v>
       </c>
       <c r="K6" s="1">
-        <v>38859.4318</v>
+        <v>39017.6456</v>
       </c>
       <c r="L6" s="1">
-        <v>15.3843</v>
+        <v>15.4161</v>
       </c>
       <c r="M6" s="1">
         <v>0.75</v>
       </c>
       <c r="N6" s="1">
-        <v>1327.3453</v>
+        <v>1330.0077</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8703.560600000001</v>
+        <v>-8741.2001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0139</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>17.107</v>
       </c>
       <c r="C7" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D7" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E7" s="1">
-        <v>3136.5771</v>
+        <v>3142.8527</v>
       </c>
       <c r="F7" s="1">
-        <v>504.9445</v>
+        <v>505.9636</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53657.4236</v>
+        <v>53657.2948</v>
       </c>
       <c r="I7" s="1">
-        <v>2437.0076</v>
+        <v>2241.1544</v>
       </c>
       <c r="J7" s="1">
-        <v>56094.4312</v>
+        <v>55898.4491</v>
       </c>
       <c r="K7" s="1">
-        <v>48890.3377</v>
+        <v>49088.8533</v>
       </c>
       <c r="L7" s="1">
-        <v>15.5872</v>
+        <v>15.6192</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8638.0857</v>
+        <v>-8672.873</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0658</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>16.8894</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D8" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E8" s="1">
-        <v>3641.5216</v>
+        <v>3648.8162</v>
       </c>
       <c r="F8" s="1">
-        <v>694.3563</v>
+        <v>695.7305</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61502.7501</v>
+        <v>61502.9864</v>
       </c>
       <c r="I8" s="1">
-        <v>3798.9219</v>
+        <v>3568.2813</v>
       </c>
       <c r="J8" s="1">
-        <v>65301.6719</v>
+        <v>65071.2678</v>
       </c>
       <c r="K8" s="1">
-        <v>57528.4234</v>
+        <v>57761.7263</v>
       </c>
       <c r="L8" s="1">
-        <v>15.7979</v>
+        <v>15.8303</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2822.9193</v>
+        <v>2828.5674</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8904.342000000001</v>
+        <v>-8945.4195</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.012</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>16.4004</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E9" s="1">
-        <v>4335.8779</v>
+        <v>4344.5467</v>
       </c>
       <c r="F9" s="1">
-        <v>805.9718</v>
+        <v>807.607</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71110.1312</v>
+        <v>71109.8031</v>
       </c>
       <c r="I9" s="1">
-        <v>4894.5799</v>
+        <v>4622.8618</v>
       </c>
       <c r="J9" s="1">
-        <v>76004.71120000001</v>
+        <v>75732.66499999999</v>
       </c>
       <c r="K9" s="1">
-        <v>69255.6847</v>
+        <v>69535.7132</v>
       </c>
       <c r="L9" s="1">
-        <v>15.9727</v>
+        <v>16.0053</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-13218.2598</v>
+        <v>-13271.6477</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>15.3877</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E10" s="1">
-        <v>5141.8497</v>
+        <v>5152.1537</v>
       </c>
       <c r="F10" s="1">
-        <v>758.8087</v>
+        <v>736.2074</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79121.2399</v>
+        <v>79121.1093</v>
       </c>
       <c r="I10" s="1">
-        <v>1676.3201</v>
+        <v>1351.2141</v>
       </c>
       <c r="J10" s="1">
-        <v>80797.56</v>
+        <v>80472.32339999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82473.9445</v>
+        <v>82807.361</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0397</v>
+        <v>16.0724</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11676.3201</v>
+        <v>-11351.2141</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0605</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.6367</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E11" s="1">
-        <v>5900.6583</v>
+        <v>5888.3611</v>
       </c>
       <c r="F11" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>86366.16559999999</v>
+        <v>86013.6464</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86366.16559999999</v>
+        <v>86013.6464</v>
       </c>
       <c r="K11" s="1">
-        <v>94150.26459999999</v>
+        <v>94158.5751</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9559</v>
+        <v>15.9906</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.0061</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E12" s="1">
-        <v>6583.8724</v>
+        <v>6570.2103</v>
       </c>
       <c r="F12" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>85630.50320000001</v>
+        <v>85281.9868</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>85630.50320000001</v>
+        <v>85281.9868</v>
       </c>
       <c r="K12" s="1">
-        <v>104150.2646</v>
+        <v>104158.5751</v>
       </c>
       <c r="L12" s="1">
-        <v>15.819</v>
+        <v>15.8532</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2655.2962</v>
+        <v>2649.7625</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7344.7038</v>
+        <v>-7350.2375</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.835</v>
       </c>
       <c r="C13" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D13" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E13" s="1">
-        <v>7352.7424</v>
+        <v>7337.5405</v>
       </c>
       <c r="F13" s="1">
-        <v>914.7305</v>
+        <v>912.5035</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>101725.1914</v>
+        <v>101311.6224</v>
       </c>
       <c r="I13" s="1">
-        <v>2655.2962</v>
+        <v>2649.7625</v>
       </c>
       <c r="J13" s="1">
-        <v>104380.4877</v>
+        <v>103961.3849</v>
       </c>
       <c r="K13" s="1">
-        <v>114150.2646</v>
+        <v>114158.5751</v>
       </c>
       <c r="L13" s="1">
-        <v>15.5249</v>
+        <v>15.5582</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12655.2962</v>
+        <v>-12649.7625</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0915</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.4216</v>
       </c>
       <c r="C14" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D14" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E14" s="1">
-        <v>8267.472900000001</v>
+        <v>8250.044</v>
       </c>
       <c r="F14" s="1">
-        <v>-8267.472900000001</v>
+        <v>-8250.044</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119230.1873</v>
+        <v>118741.2329</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119230.1873</v>
+        <v>118741.2329</v>
       </c>
       <c r="K14" s="1">
-        <v>126805.5609</v>
+        <v>126808.3376</v>
       </c>
       <c r="L14" s="1">
-        <v>15.3379</v>
+        <v>15.3706</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119230.1873</v>
+        <v>118741.2329</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.2964</v>
+        <v>15.3272</v>
       </c>
       <c r="D3" s="1">
-        <v>15.2968</v>
+        <v>15.3314</v>
       </c>
       <c r="E3" s="1">
-        <v>15.314</v>
+        <v>15.3466</v>
       </c>
       <c r="F3" s="1">
-        <v>15.3258</v>
+        <v>15.3585</v>
       </c>
       <c r="G3" s="1">
-        <v>15.3379</v>
+        <v>15.3706</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0453</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0506</v>
+        <v>0.0382</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0476</v>
+        <v>0.0356</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0471</v>
+        <v>0.0351</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0467</v>
+        <v>0.0346</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0463</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1866</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2001</v>
+        <v>0.2002</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2</v>
+        <v>0.2005</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2008</v>
+        <v>0.2012</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2014</v>
+        <v>0.2017</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2019</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.352</v>
       </c>
       <c r="C6" s="4">
-        <v>0.1513</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1365</v>
+        <v>0.0761</v>
       </c>
       <c r="E6" s="4">
-        <v>0.1332</v>
+        <v>0.0732</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1309</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>0.1286</v>
+        <v>0.06859999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0069</v>
+        <v>-0.0146</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0091</v>
+        <v>-0.0169</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0102</v>
+        <v>-0.0179</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0112</v>
+        <v>-0.0188</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6813.7724</v>
+        <v>6800.0488</v>
       </c>
       <c r="D8" s="1">
-        <v>6679.0975</v>
+        <v>6692.4802</v>
       </c>
       <c r="E8" s="1">
-        <v>6740.2631</v>
+        <v>6742.9133</v>
       </c>
       <c r="F8" s="1">
-        <v>6772.7896</v>
+        <v>6775.5029</v>
       </c>
       <c r="G8" s="1">
-        <v>6805.5609</v>
+        <v>6808.3376</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P44_KFSDIV.xlsx
+++ b/output/1Y_P44_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8574.953</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9395</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9395</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9381</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9374</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
